--- a/data/trans_camb/IP11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-11,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>-15,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-10,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-12,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-12,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 6,49</t>
+          <t>-14,53; 22,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 2,08</t>
+          <t>-17,19; 14,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -0,98</t>
+          <t>-24,88; -3,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 11,02</t>
+          <t>-31,25; -5,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,56</t>
+          <t>-25,41; 6,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 1,65</t>
+          <t>-29,84; -1,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,4</t>
+          <t>-15,87; 6,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,71</t>
+          <t>-16,08; 5,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -0,83</t>
+          <t>-22,21; -4,74</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-23,31%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-65,61%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>187,71%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>-68,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-32,68%</t>
+          <t>-84,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>-39,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>-42,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-54,6%</t>
+          <t>-89,74%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 143,28</t>
+          <t>-81,55; 559,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,07; 51,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,92; -13,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,46; 499,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 161,13</t>
+          <t>-100,0; 304,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,36; 86,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,31; 180,79</t>
+          <t>-85,09; 118,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 44,38</t>
+          <t>-85,36; 103,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,88; -17,41</t>
+          <t>-100,0; -22,87</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-2,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 8,71</t>
+          <t>-1,92; 6,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,49</t>
+          <t>-5,11; 2,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,88</t>
+          <t>-7,51; -0,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,42</t>
+          <t>3,2; 11,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -0,28</t>
+          <t>-2,13; 3,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; -0,16</t>
+          <t>-3,89; 1,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,81</t>
+          <t>1,86; 7,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,19</t>
+          <t>-3,07; 1,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,42</t>
+          <t>-4,95; -0,83</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>-23,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,28%</t>
+          <t>-65,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>187,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-66,75%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-65,66%</t>
+          <t>-32,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,32%</t>
+          <t>-8,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>-54,6%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 233,61</t>
+          <t>-21,82; 143,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 130,7</t>
+          <t>-61,07; 51,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,43; 91,12</t>
+          <t>-86,92; -13,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 197,04</t>
+          <t>53,46; 499,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-93,23; 4,64</t>
+          <t>-47,7; 161,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-92,69; 18,97</t>
+          <t>-80,36; 86,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 163,5</t>
+          <t>26,31; 180,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 36,91</t>
+          <t>-46,61; 44,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 12,16</t>
+          <t>-77,88; -17,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,76</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-15,28</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,4</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,04</t>
+          <t>-1,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 22,26</t>
+          <t>0,06; 10,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 14,16</t>
+          <t>-5,32; 2,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -3,22</t>
+          <t>-5,8; 2,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,25; -5,47</t>
+          <t>-3,2; 5,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 6,43</t>
+          <t>-5,32; 1,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,84; -1,4</t>
+          <t>-4,37; 3,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 6,56</t>
+          <t>-0,24; 6,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 5,84</t>
+          <t>-4,07; 0,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,21; -4,74</t>
+          <t>-4,0; 1,53</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>-20,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-27,57%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-68,06%</t>
+          <t>-37,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-84,18%</t>
+          <t>-17,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-39,73%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-42,9%</t>
+          <t>-27,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-89,74%</t>
+          <t>-23,34%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-81,55; 559,16</t>
+          <t>-2,08; 276,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,61; 78,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,39; 61,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,82; 216,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 304,39</t>
+          <t>-78,14; 72,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,03; 121,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-85,09; 118,83</t>
+          <t>-6,25; 163,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-85,36; 103,77</t>
+          <t>-58,73; 24,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,87</t>
+          <t>-58,37; 41,49</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,21</t>
+          <t>0,06; 8,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,61</t>
+          <t>-2,93; 4,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,45</t>
+          <t>-4,29; 2,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,46</t>
+          <t>-1,91; 5,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 1,3</t>
+          <t>-5,92; -0,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,13</t>
+          <t>-5,98; -0,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 6,38</t>
+          <t>0,13; 5,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,83</t>
+          <t>-3,57; 1,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,53</t>
+          <t>-3,98; 0,42</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-20,33%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-27,57%</t>
+          <t>-20,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-37,71%</t>
+          <t>-66,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-17,1%</t>
+          <t>-65,66%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-27,7%</t>
+          <t>-24,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>-40,73%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 276,22</t>
+          <t>-2,33; 233,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,61; 78,81</t>
+          <t>-44,72; 130,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 61,85</t>
+          <t>-66,43; 91,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 216,59</t>
+          <t>-35,76; 197,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-78,14; 72,11</t>
+          <t>-93,23; 4,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,03; 121,69</t>
+          <t>-92,69; 18,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 163,26</t>
+          <t>1,53; 163,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 24,11</t>
+          <t>-57,96; 36,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 41,49</t>
+          <t>-71,75; 12,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 22,26</t>
+          <t>-12,25; 20,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 14,16</t>
+          <t>-18,1; 14,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -3,22</t>
+          <t>-27,13; -3,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,25; -5,47</t>
+          <t>-30,5; -5,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 6,43</t>
+          <t>-25,2; 3,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,84; -1,4</t>
+          <t>-30,22; -3,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 6,56</t>
+          <t>-15,82; 6,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 5,84</t>
+          <t>-16,69; 6,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,21; -4,74</t>
+          <t>-21,63; -4,27</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,55; 559,16</t>
+          <t>-75,84; 517,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 304,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,09; 118,83</t>
+          <t>-87,19; 129,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,36; 103,77</t>
+          <t>-87,47; 111,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,87</t>
+          <t>-100,0; -29,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 7,8</t>
+          <t>-4,25; 7,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,52</t>
+          <t>-7,1; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -2,33</t>
+          <t>-10,63; -2,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,37</t>
+          <t>-6,36; 5,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,78</t>
+          <t>-8,6; 1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -0,24</t>
+          <t>-9,93; -0,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,97</t>
+          <t>-3,55; 4,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,36</t>
+          <t>-6,43; 1,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -2,5</t>
+          <t>-9,62; -2,57</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 142,54</t>
+          <t>-42,13; 128,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 70,95</t>
+          <t>-68,12; 72,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-95,31; -28,28</t>
+          <t>-94,25; -23,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 110,46</t>
+          <t>-58,45; 102,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,63; 60,65</t>
+          <t>-76,0; 50,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,21; 9,03</t>
+          <t>-88,74; 11,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 89,24</t>
+          <t>-35,74; 76,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,79; 26,69</t>
+          <t>-61,93; 24,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-86,89; -32,62</t>
+          <t>-87,54; -37,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 6,49</t>
+          <t>-1,96; 6,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 2,08</t>
+          <t>-5,19; 1,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -0,98</t>
+          <t>-7,5; -0,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 11,02</t>
+          <t>3,27; 11,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,56</t>
+          <t>-2,16; 3,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 1,65</t>
+          <t>-3,97; 1,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,4</t>
+          <t>1,53; 7,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,71</t>
+          <t>-2,83; 1,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -0,83</t>
+          <t>-4,82; -0,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 143,28</t>
+          <t>-25,25; 137,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,07; 51,25</t>
+          <t>-60,96; 41,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,92; -13,28</t>
+          <t>-87,92; -2,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>53,46; 499,15</t>
+          <t>50,7; 459,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 161,13</t>
+          <t>-45,94; 165,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,36; 86,1</t>
+          <t>-79,13; 74,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,31; 180,79</t>
+          <t>23,9; 189,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 44,38</t>
+          <t>-43,65; 51,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,88; -17,41</t>
+          <t>-77,98; -10,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,21</t>
+          <t>-0,03; 9,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,61</t>
+          <t>-5,35; 2,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,45</t>
+          <t>-5,74; 2,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,46</t>
+          <t>-3,24; 4,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 1,3</t>
+          <t>-5,36; 1,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,13</t>
+          <t>-4,95; 2,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 6,38</t>
+          <t>0,06; 6,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,83</t>
+          <t>-4,08; 1,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,53</t>
+          <t>-4,05; 1,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 276,22</t>
+          <t>-3,01; 238,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,61; 78,81</t>
+          <t>-64,43; 74,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 61,85</t>
+          <t>-71,42; 65,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 216,59</t>
+          <t>-50,46; 200,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-78,14; 72,11</t>
+          <t>-79,62; 75,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,03; 121,69</t>
+          <t>-70,65; 116,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 163,26</t>
+          <t>-0,48; 164,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 24,11</t>
+          <t>-58,65; 33,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 41,49</t>
+          <t>-59,38; 41,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 8,71</t>
+          <t>0,37; 8,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,49</t>
+          <t>-3,17; 4,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,88</t>
+          <t>-4,37; 3,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,42</t>
+          <t>-1,85; 5,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -0,28</t>
+          <t>-5,93; -0,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,98; -0,16</t>
+          <t>-5,55; 0,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,81</t>
+          <t>0,24; 5,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,19</t>
+          <t>-3,47; 1,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,42</t>
+          <t>-4,19; 0,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 233,61</t>
+          <t>-0,84; 255,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 130,7</t>
+          <t>-46,71; 133,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,43; 91,12</t>
+          <t>-64,59; 99,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 197,04</t>
+          <t>-34,8; 207,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-93,23; 4,64</t>
+          <t>-92,22; 6,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,69; 18,97</t>
+          <t>-92,65; 11,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,53; 163,5</t>
+          <t>4,67; 170,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 36,91</t>
+          <t>-57,23; 36,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 12,16</t>
+          <t>-67,72; 22,56</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,69</t>
+          <t>1,01; 5,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,02</t>
+          <t>-2,87; 1,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -1,44</t>
+          <t>-5,12; -1,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,07</t>
+          <t>0,17; 4,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,17</t>
+          <t>-3,79; -0,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,32; -0,91</t>
+          <t>-4,29; -0,79</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,21</t>
+          <t>1,1; 4,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,94; -0,09</t>
+          <t>-2,95; -0,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,16; -1,62</t>
+          <t>-4,15; -1,7</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,16; 100,17</t>
+          <t>12,7; 104,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 17,91</t>
+          <t>-39,48; 18,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-69,27; -24,81</t>
+          <t>-68,38; -24,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 95,65</t>
+          <t>0,12; 97,1</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,67; -3,57</t>
+          <t>-59,84; -1,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -19,94</t>
+          <t>-69,82; -18,82</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>15,59; 79,9</t>
+          <t>16,82; 83,63</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -1,56</t>
+          <t>-44,0; -1,98</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -32,17</t>
+          <t>-63,59; -33,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 20,39</t>
+          <t>-13,55; 22,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 14,09</t>
+          <t>-17,87; 14,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,13; -3,17</t>
+          <t>-26,73; -3,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,5; -5,5</t>
+          <t>-31,34; -5,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 3,71</t>
+          <t>-26,5; 4,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,22; -3,26</t>
+          <t>-30,09; -1,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 6,31</t>
+          <t>-17,15; 5,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 6,08</t>
+          <t>-16,75; 5,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,63; -4,27</t>
+          <t>-21,96; -4,47</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,84; 517,41</t>
+          <t>-79,61; 680,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 402,3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-87,19; 129,88</t>
+          <t>-87,44; 93,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,47; 111,72</t>
+          <t>-87,67; 112,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -29,0</t>
+          <t>-100,0; -5,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 7,45</t>
+          <t>-3,5; 7,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 3,72</t>
+          <t>-7,32; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -2,19</t>
+          <t>-10,82; -2,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,15</t>
+          <t>-6,62; 4,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 1,93</t>
+          <t>-8,73; 2,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -0,24</t>
+          <t>-10,23; -0,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 4,79</t>
+          <t>-3,42; 4,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 1,18</t>
+          <t>-6,1; 1,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,62; -2,57</t>
+          <t>-8,95; -2,39</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,13; 128,29</t>
+          <t>-35,05; 133,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 72,0</t>
+          <t>-67,88; 65,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,25; -23,59</t>
+          <t>-94,38; -28,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 102,52</t>
+          <t>-57,8; 92,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,0; 50,11</t>
+          <t>-77,2; 55,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-88,74; 11,83</t>
+          <t>-90,8; 18,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 76,38</t>
+          <t>-34,25; 78,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,93; 24,48</t>
+          <t>-59,67; 25,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-87,54; -37,11</t>
+          <t>-86,49; -32,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 6,47</t>
+          <t>-1,98; 6,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 1,77</t>
+          <t>-5,2; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -0,91</t>
+          <t>-7,28; -1,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,05</t>
+          <t>3,07; 11,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,78</t>
+          <t>-2,12; 4,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,71</t>
+          <t>-3,8; 1,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 7,49</t>
+          <t>1,74; 7,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,95</t>
+          <t>-2,7; 1,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -0,55</t>
+          <t>-4,87; -0,61</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 137,96</t>
+          <t>-25,39; 139,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 41,12</t>
+          <t>-63,54; 37,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,92; -2,68</t>
+          <t>-87,26; -3,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,7; 459,94</t>
+          <t>45,08; 469,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 165,72</t>
+          <t>-45,81; 186,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,13; 74,73</t>
+          <t>-77,33; 104,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,9; 189,11</t>
+          <t>24,66; 187,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 51,49</t>
+          <t>-43,46; 42,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,98; -10,67</t>
+          <t>-77,29; -10,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 9,55</t>
+          <t>0,01; 9,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 2,82</t>
+          <t>-5,38; 2,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,6</t>
+          <t>-5,94; 2,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,99</t>
+          <t>-3,42; 4,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,41</t>
+          <t>-5,13; 1,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,74</t>
+          <t>-4,78; 2,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,1</t>
+          <t>-0,37; 6,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,0</t>
+          <t>-4,12; 1,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,58</t>
+          <t>-4,18; 1,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 238,36</t>
+          <t>-4,41; 249,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,43; 74,62</t>
+          <t>-64,21; 87,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,42; 65,81</t>
+          <t>-73,64; 83,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 200,32</t>
+          <t>-51,15; 165,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-79,62; 75,96</t>
+          <t>-76,26; 84,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,65; 116,53</t>
+          <t>-68,02; 140,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 164,28</t>
+          <t>-6,62; 165,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,65; 33,84</t>
+          <t>-59,56; 37,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,38; 41,77</t>
+          <t>-57,61; 42,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 8,66</t>
+          <t>0,21; 8,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 4,61</t>
+          <t>-3,08; 4,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,04</t>
+          <t>-4,26; 2,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,33</t>
+          <t>-1,77; 5,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -0,4</t>
+          <t>-5,61; -0,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,02</t>
+          <t>-6,06; -0,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,95</t>
+          <t>0,2; 5,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,09</t>
+          <t>-3,33; 1,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,58</t>
+          <t>-3,94; 0,38</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 255,69</t>
+          <t>-1,01; 248,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,71; 133,36</t>
+          <t>-45,97; 138,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,59; 99,36</t>
+          <t>-66,6; 81,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 207,34</t>
+          <t>-33,34; 192,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-92,22; 6,26</t>
+          <t>-91,96; 12,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,65; 11,69</t>
+          <t>-92,54; 10,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,67; 170,92</t>
+          <t>1,17; 163,05</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 36,5</t>
+          <t>-56,43; 41,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-67,72; 22,56</t>
+          <t>-69,31; 19,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,65</t>
+          <t>0,97; 5,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,01</t>
+          <t>-2,84; 1,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -1,53</t>
+          <t>-5,21; -1,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,16</t>
+          <t>-0,01; 4,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,19</t>
+          <t>-3,57; -0,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,79</t>
+          <t>-4,2; -0,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,24</t>
+          <t>1,1; 4,33</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,12</t>
+          <t>-2,56; -0,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -1,7</t>
+          <t>-4,33; -1,75</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,7; 104,18</t>
+          <t>12,83; 107,84</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 18,52</t>
+          <t>-38,42; 20,07</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-68,38; -24,99</t>
+          <t>-69,24; -24,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,12; 97,1</t>
+          <t>-0,77; 101,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -1,83</t>
+          <t>-57,04; -0,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-69,82; -18,82</t>
+          <t>-67,76; -16,74</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,82; 83,63</t>
+          <t>15,6; 82,46</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,0; -1,98</t>
+          <t>-40,11; -1,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-63,59; -33,77</t>
+          <t>-64,96; -32,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,76</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,28</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,4</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,04</t>
+          <t>-6,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 22,27</t>
+          <t>-7,96; 2,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 14,94</t>
+          <t>-9,37; 1,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,73; -3,18</t>
+          <t>-11,23; -1,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,34; -5,34</t>
+          <t>-3,75; 8,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 4,96</t>
+          <t>-7,06; 3,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,09; -1,73</t>
+          <t>-11,7; -3,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 5,36</t>
+          <t>-4,41; 3,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 5,37</t>
+          <t>-7,0; 0,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -4,47</t>
+          <t>-9,97; -3,77</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>-29,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>-43,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-67,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-68,06%</t>
+          <t>-21,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-84,18%</t>
+          <t>-81,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-39,73%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-42,9%</t>
+          <t>-32,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-89,74%</t>
+          <t>-74,85%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-79,61; 680,23</t>
+          <t>-66,04; 34,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 402,3</t>
+          <t>-77,55; 26,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,01; -13,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; 139,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,48; 49,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,11; -43,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-87,44; 93,88</t>
+          <t>-41,04; 47,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,67; 112,54</t>
+          <t>-63,71; 7,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -5,81</t>
+          <t>-88,43; -46,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-2,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,25</t>
+          <t>3,2; 11,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 3,37</t>
+          <t>-2,13; 3,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; -2,18</t>
+          <t>-3,93; 1,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 4,71</t>
+          <t>-1,92; 6,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 2,13</t>
+          <t>-5,11; 2,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -0,29</t>
+          <t>-7,45; -0,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,69</t>
+          <t>1,86; 7,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 1,31</t>
+          <t>-3,07; 1,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,95; -2,39</t>
+          <t>-4,95; -0,77</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>187,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,42%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-75,61%</t>
+          <t>-34,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,66%</t>
+          <t>-23,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-62,53%</t>
+          <t>-64,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,34%</t>
+          <t>-8,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-69,36%</t>
+          <t>-53,93%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 133,38</t>
+          <t>53,46; 499,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,88; 65,35</t>
+          <t>-47,7; 161,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,38; -28,26</t>
+          <t>-80,41; 84,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,8; 92,28</t>
+          <t>-21,82; 143,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,2; 55,51</t>
+          <t>-61,07; 51,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,8; 18,54</t>
+          <t>-86,38; -9,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,25; 78,54</t>
+          <t>26,31; 180,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 25,55</t>
+          <t>-46,61; 44,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-86,49; -32,42</t>
+          <t>-77,34; -14,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-1,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 6,56</t>
+          <t>-3,2; 5,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 1,87</t>
+          <t>-5,32; 1,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; -1,1</t>
+          <t>-4,95; 2,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,1</t>
+          <t>0,06; 10,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 4,01</t>
+          <t>-5,32; 2,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,85</t>
+          <t>-5,85; 2,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,39</t>
+          <t>-0,24; 6,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,73</t>
+          <t>-4,07; 0,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; -0,61</t>
+          <t>-4,14; 1,36</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,31%</t>
+          <t>-37,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-65,61%</t>
+          <t>-25,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>187,71%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>-20,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-32,68%</t>
+          <t>-24,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>-27,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-54,6%</t>
+          <t>-25,37%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 139,23</t>
+          <t>-50,82; 216,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,54; 37,3</t>
+          <t>-78,14; 72,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,26; -3,72</t>
+          <t>-73,13; 91,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,08; 469,45</t>
+          <t>-2,08; 276,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,81; 186,85</t>
+          <t>-63,61; 78,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,33; 104,48</t>
+          <t>-73,75; 70,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,66; 187,97</t>
+          <t>-6,25; 163,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 42,81</t>
+          <t>-58,73; 24,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,29; -10,65</t>
+          <t>-61,14; 38,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 9,87</t>
+          <t>-1,91; 5,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 2,87</t>
+          <t>-5,92; -0,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 2,95</t>
+          <t>-5,9; -0,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,62</t>
+          <t>0,06; 8,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,82</t>
+          <t>-2,93; 4,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 2,89</t>
+          <t>-4,33; 2,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 6,14</t>
+          <t>0,13; 5,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,22</t>
+          <t>-3,57; 1,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,46</t>
+          <t>-3,95; 0,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-20,33%</t>
+          <t>-66,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-27,57%</t>
+          <t>-64,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-37,71%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,1%</t>
+          <t>-19,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-27,7%</t>
+          <t>-24,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>-38,74%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 249,11</t>
+          <t>-35,76; 197,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 87,59</t>
+          <t>-93,23; 4,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,64; 83,67</t>
+          <t>-92,63; 22,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 165,14</t>
+          <t>-2,33; 233,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 84,77</t>
+          <t>-44,72; 130,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 140,94</t>
+          <t>-65,51; 100,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 165,11</t>
+          <t>1,53; 163,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-59,56; 37,34</t>
+          <t>-57,96; 36,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,61; 42,85</t>
+          <t>-70,68; 15,46</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-2,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 8,81</t>
+          <t>-0,05; 4,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 4,23</t>
+          <t>-3,79; -0,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,63</t>
+          <t>-4,36; -1,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 5,47</t>
+          <t>1,08; 5,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -0,31</t>
+          <t>-2,94; 1,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,06; -0,3</t>
+          <t>-5,2; -1,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,85</t>
+          <t>1,08; 4,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,32</t>
+          <t>-2,94; -0,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 0,38</t>
+          <t>-4,16; -1,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>-35,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-20,28%</t>
+          <t>-50,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-66,75%</t>
+          <t>-14,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-65,66%</t>
+          <t>-50,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-24,32%</t>
+          <t>-23,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>-50,48%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 248,09</t>
+          <t>-1,32; 95,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 138,6</t>
+          <t>-60,67; -3,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,6; 81,18</t>
+          <t>-70,13; -21,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 192,04</t>
+          <t>13,16; 100,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,96; 12,17</t>
+          <t>-39,9; 17,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,54; 10,88</t>
+          <t>-68,76; -21,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,17; 163,05</t>
+          <t>15,59; 79,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-56,43; 41,82</t>
+          <t>-43,63; -1,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-69,31; 19,04</t>
+          <t>-63,84; -31,02</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,86</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 5,81</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 1,12</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; -1,55</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 4,18</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; -0,15</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; -0,78</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 4,33</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; -0,08</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; -1,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>51,76%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-14,92%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-51,97%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>40,31%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-35,79%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-49,21%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>46,77%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-23,94%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-50,69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>12,83; 107,84</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-38,42; 20,07</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-69,24; -24,94</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 101,52</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-57,04; -0,86</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-67,76; -16,74</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>15,6; 82,46</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-40,11; -1,01</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-64,96; -32,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
